--- a/0808_TESTING/output.xlsx
+++ b/0808_TESTING/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apple\Documents\GitHub\nphh\0808_TESTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB11228-4359-4014-BDFF-A4687BE3B66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A157C322-9535-4928-98D3-7999B0677A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="292">
   <si>
     <t>LOC</t>
   </si>
@@ -43,6 +43,318 @@
     <t>Ranking</t>
   </si>
   <si>
+    <t>A-C0489</t>
+  </si>
+  <si>
+    <t>A-C0758</t>
+  </si>
+  <si>
+    <t>A-C0576</t>
+  </si>
+  <si>
+    <t>A-C0006</t>
+  </si>
+  <si>
+    <t>A-C0323</t>
+  </si>
+  <si>
+    <t>A-C0198</t>
+  </si>
+  <si>
+    <t>B2A3S</t>
+  </si>
+  <si>
+    <t>B2A3P</t>
+  </si>
+  <si>
+    <t>B2C1I</t>
+  </si>
+  <si>
+    <t>B2A5M</t>
+  </si>
+  <si>
+    <t>B2A3N</t>
+  </si>
+  <si>
+    <t>B2B6D</t>
+  </si>
+  <si>
+    <t>B2G5O</t>
+  </si>
+  <si>
+    <t>B2G5N</t>
+  </si>
+  <si>
+    <t>B2E1B</t>
+  </si>
+  <si>
+    <t>A-C0178</t>
+  </si>
+  <si>
+    <t>B2H5I</t>
+  </si>
+  <si>
+    <t>B4F3A</t>
+  </si>
+  <si>
+    <t>A-C0640</t>
+  </si>
+  <si>
+    <t>A-C0245</t>
+  </si>
+  <si>
+    <t>A-C0732</t>
+  </si>
+  <si>
+    <t>A-C0741</t>
+  </si>
+  <si>
+    <t>A-C0477</t>
+  </si>
+  <si>
+    <t>A-C0748</t>
+  </si>
+  <si>
+    <t>A-C0728</t>
+  </si>
+  <si>
+    <t>B2R2B</t>
+  </si>
+  <si>
+    <t>B2G1N</t>
+  </si>
+  <si>
+    <t>B2A1S</t>
+  </si>
+  <si>
+    <t>B2A1R</t>
+  </si>
+  <si>
+    <t>B2R3D</t>
+  </si>
+  <si>
+    <t>B2D1E</t>
+  </si>
+  <si>
+    <t>B2D2G</t>
+  </si>
+  <si>
+    <t>B2C2M</t>
+  </si>
+  <si>
+    <t>B2R2F</t>
+  </si>
+  <si>
+    <t>B2B1F</t>
+  </si>
+  <si>
+    <t>B2C1L</t>
+  </si>
+  <si>
+    <t>B2C1M</t>
+  </si>
+  <si>
+    <t>B2B4J</t>
+  </si>
+  <si>
+    <t>B2R1E</t>
+  </si>
+  <si>
+    <t>B4A1B</t>
+  </si>
+  <si>
+    <t>B2Q1A</t>
+  </si>
+  <si>
+    <t>B2B2C</t>
+  </si>
+  <si>
+    <t>B2A5L</t>
+  </si>
+  <si>
+    <t>B2A3M</t>
+  </si>
+  <si>
+    <t>B2B2J</t>
+  </si>
+  <si>
+    <t>B2F3K</t>
+  </si>
+  <si>
+    <t>B2G1O</t>
+  </si>
+  <si>
+    <t>B2F2E</t>
+  </si>
+  <si>
+    <t>B2N2F</t>
+  </si>
+  <si>
+    <t>B2D2F</t>
+  </si>
+  <si>
+    <t>B2F4I</t>
+  </si>
+  <si>
+    <t>B2C5H</t>
+  </si>
+  <si>
+    <t>B2E3A</t>
+  </si>
+  <si>
+    <t>B2H4D</t>
+  </si>
+  <si>
+    <t>B2E2J</t>
+  </si>
+  <si>
+    <t>B4G1D</t>
+  </si>
+  <si>
+    <t>B2N4K</t>
+  </si>
+  <si>
+    <t>B2N4H</t>
+  </si>
+  <si>
+    <t>B4P2D</t>
+  </si>
+  <si>
+    <t>B4O1B</t>
+  </si>
+  <si>
+    <t>B4Y2B</t>
+  </si>
+  <si>
+    <t>B4G2D</t>
+  </si>
+  <si>
+    <t>B4P3B</t>
+  </si>
+  <si>
+    <t>B4P3C</t>
+  </si>
+  <si>
+    <t>B4P2C</t>
+  </si>
+  <si>
+    <t>B4Q3B</t>
+  </si>
+  <si>
+    <t>B4Q1C</t>
+  </si>
+  <si>
+    <t>B4Q2D</t>
+  </si>
+  <si>
+    <t>B2G4L</t>
+  </si>
+  <si>
+    <t>B4Q3A</t>
+  </si>
+  <si>
+    <t>B4Q1D</t>
+  </si>
+  <si>
+    <t>B4P3A</t>
+  </si>
+  <si>
+    <t>B4Q3C</t>
+  </si>
+  <si>
+    <t>B4P2A</t>
+  </si>
+  <si>
+    <t>B4P1C</t>
+  </si>
+  <si>
+    <t>B4O2C</t>
+  </si>
+  <si>
+    <t>B4O3A</t>
+  </si>
+  <si>
+    <t>B4O3C</t>
+  </si>
+  <si>
+    <t>B4Q1A</t>
+  </si>
+  <si>
+    <t>B4Q3D</t>
+  </si>
+  <si>
+    <t>B4Q2A</t>
+  </si>
+  <si>
+    <t>B4Q1B</t>
+  </si>
+  <si>
+    <t>B2I3I</t>
+  </si>
+  <si>
+    <t>B2L5F</t>
+  </si>
+  <si>
+    <t>B2L5G</t>
+  </si>
+  <si>
+    <t>B2H2D</t>
+  </si>
+  <si>
+    <t>B2G2O</t>
+  </si>
+  <si>
+    <t>B2I5H</t>
+  </si>
+  <si>
+    <t>B2D1C</t>
+  </si>
+  <si>
+    <t>B2A1K</t>
+  </si>
+  <si>
+    <t>B2G3I</t>
+  </si>
+  <si>
+    <t>B2C3J</t>
+  </si>
+  <si>
+    <t>B2R3G</t>
+  </si>
+  <si>
+    <t>B2E5A</t>
+  </si>
+  <si>
+    <t>B2E3E</t>
+  </si>
+  <si>
+    <t>B2E2E</t>
+  </si>
+  <si>
+    <t>B2A6R</t>
+  </si>
+  <si>
+    <t>B2C5G</t>
+  </si>
+  <si>
+    <t>B2A2K</t>
+  </si>
+  <si>
+    <t>B2A5K</t>
+  </si>
+  <si>
+    <t>B2N5K</t>
+  </si>
+  <si>
+    <t>B2C3M</t>
+  </si>
+  <si>
+    <t>B2A1A</t>
+  </si>
+  <si>
+    <t>B2R1B</t>
+  </si>
+  <si>
     <t>B2A1P</t>
   </si>
   <si>
@@ -52,291 +364,12 @@
     <t>B2A4M</t>
   </si>
   <si>
-    <t>B2A5M</t>
-  </si>
-  <si>
-    <t>B2A3N</t>
-  </si>
-  <si>
-    <t>B2B6D</t>
-  </si>
-  <si>
-    <t>B2G5O</t>
-  </si>
-  <si>
-    <t>B2G5N</t>
-  </si>
-  <si>
-    <t>B2R3D</t>
-  </si>
-  <si>
     <t>B2R2G</t>
   </si>
   <si>
     <t>B2E4F</t>
   </si>
   <si>
-    <t>B2G4L</t>
-  </si>
-  <si>
-    <t>A-C0017</t>
-  </si>
-  <si>
-    <t>B2R2B</t>
-  </si>
-  <si>
-    <t>B2G1N</t>
-  </si>
-  <si>
-    <t>B2A1S</t>
-  </si>
-  <si>
-    <t>B2A1R</t>
-  </si>
-  <si>
-    <t>B2D1E</t>
-  </si>
-  <si>
-    <t>B2D2G</t>
-  </si>
-  <si>
-    <t>B2C2M</t>
-  </si>
-  <si>
-    <t>B2R2F</t>
-  </si>
-  <si>
-    <t>B2B1F</t>
-  </si>
-  <si>
-    <t>B2C1L</t>
-  </si>
-  <si>
-    <t>B2C1M</t>
-  </si>
-  <si>
-    <t>B2B4J</t>
-  </si>
-  <si>
-    <t>B2R1E</t>
-  </si>
-  <si>
-    <t>B4A1B</t>
-  </si>
-  <si>
-    <t>B2Q1A</t>
-  </si>
-  <si>
-    <t>B2B2G</t>
-  </si>
-  <si>
-    <t>B2B2C</t>
-  </si>
-  <si>
-    <t>B2A5L</t>
-  </si>
-  <si>
-    <t>B2A3M</t>
-  </si>
-  <si>
-    <t>B2B2J</t>
-  </si>
-  <si>
-    <t>B2F3K</t>
-  </si>
-  <si>
-    <t>B2G1O</t>
-  </si>
-  <si>
-    <t>B2F2E</t>
-  </si>
-  <si>
-    <t>B2N2F</t>
-  </si>
-  <si>
-    <t>B2D2F</t>
-  </si>
-  <si>
-    <t>B2F4I</t>
-  </si>
-  <si>
-    <t>B2C5H</t>
-  </si>
-  <si>
-    <t>B2E3B</t>
-  </si>
-  <si>
-    <t>B2H1G</t>
-  </si>
-  <si>
-    <t>B2E3A</t>
-  </si>
-  <si>
-    <t>B2H4D</t>
-  </si>
-  <si>
-    <t>B2E2J</t>
-  </si>
-  <si>
-    <t>B4G1D</t>
-  </si>
-  <si>
-    <t>B2N4K</t>
-  </si>
-  <si>
-    <t>B2N4H</t>
-  </si>
-  <si>
-    <t>B4P2D</t>
-  </si>
-  <si>
-    <t>B4Q3B</t>
-  </si>
-  <si>
-    <t>B4Q1C</t>
-  </si>
-  <si>
-    <t>B4G2D</t>
-  </si>
-  <si>
-    <t>B4Q2D</t>
-  </si>
-  <si>
-    <t>B4K4C</t>
-  </si>
-  <si>
-    <t>B4K4B</t>
-  </si>
-  <si>
-    <t>B4P3B</t>
-  </si>
-  <si>
-    <t>B4P3A</t>
-  </si>
-  <si>
-    <t>B4P1B</t>
-  </si>
-  <si>
-    <t>B4O2B</t>
-  </si>
-  <si>
-    <t>B4Q2B</t>
-  </si>
-  <si>
-    <t>B4Z3A</t>
-  </si>
-  <si>
-    <t>B4Q3A</t>
-  </si>
-  <si>
-    <t>B4Q1D</t>
-  </si>
-  <si>
-    <t>B4Q3C</t>
-  </si>
-  <si>
-    <t>B4P2A</t>
-  </si>
-  <si>
-    <t>B4P1C</t>
-  </si>
-  <si>
-    <t>B4P2C</t>
-  </si>
-  <si>
-    <t>B4O2A</t>
-  </si>
-  <si>
-    <t>B4O2C</t>
-  </si>
-  <si>
-    <t>B4O3A</t>
-  </si>
-  <si>
-    <t>B4O3C</t>
-  </si>
-  <si>
-    <t>B4Q1A</t>
-  </si>
-  <si>
-    <t>B4Q3D</t>
-  </si>
-  <si>
-    <t>B4Q2A</t>
-  </si>
-  <si>
-    <t>B4Q1B</t>
-  </si>
-  <si>
-    <t>B2I3I</t>
-  </si>
-  <si>
-    <t>B2L5F</t>
-  </si>
-  <si>
-    <t>B2L5G</t>
-  </si>
-  <si>
-    <t>B2H2D</t>
-  </si>
-  <si>
-    <t>B2G2O</t>
-  </si>
-  <si>
-    <t>B2I5H</t>
-  </si>
-  <si>
-    <t>B2D1C</t>
-  </si>
-  <si>
-    <t>B2A1K</t>
-  </si>
-  <si>
-    <t>B2G3I</t>
-  </si>
-  <si>
-    <t>B2C3J</t>
-  </si>
-  <si>
-    <t>B2R3G</t>
-  </si>
-  <si>
-    <t>B2E5A</t>
-  </si>
-  <si>
-    <t>B2E3E</t>
-  </si>
-  <si>
-    <t>B2E2E</t>
-  </si>
-  <si>
-    <t>B2A6R</t>
-  </si>
-  <si>
-    <t>B2C5G</t>
-  </si>
-  <si>
-    <t>B2A2K</t>
-  </si>
-  <si>
-    <t>B2A5K</t>
-  </si>
-  <si>
-    <t>B2N5K</t>
-  </si>
-  <si>
-    <t>B2C3M</t>
-  </si>
-  <si>
-    <t>B2A1A</t>
-  </si>
-  <si>
-    <t>B2H5I</t>
-  </si>
-  <si>
-    <t>B2R1B</t>
-  </si>
-  <si>
     <t>B2A5A</t>
   </si>
   <si>
@@ -388,7 +421,7 @@
     <t>B2G2H</t>
   </si>
   <si>
-    <t>B2C6K</t>
+    <t>B2A2Q</t>
   </si>
   <si>
     <t>B2C3G</t>
@@ -400,9 +433,6 @@
     <t>B2R1J</t>
   </si>
   <si>
-    <t>B2A2Q</t>
-  </si>
-  <si>
     <t>B2F2G</t>
   </si>
   <si>
@@ -415,9 +445,6 @@
     <t>B435B</t>
   </si>
   <si>
-    <t>B2R3J</t>
-  </si>
-  <si>
     <t>B2R04</t>
   </si>
   <si>
@@ -436,6 +463,12 @@
     <t>tain2c0002</t>
   </si>
   <si>
+    <t>tain2c0006</t>
+  </si>
+  <si>
+    <t>tain2c0007</t>
+  </si>
+  <si>
     <t>tain2c0011</t>
   </si>
   <si>
@@ -451,6 +484,9 @@
     <t>tain2c0017</t>
   </si>
   <si>
+    <t>tain2c0018</t>
+  </si>
+  <si>
     <t>tamf2c0673</t>
   </si>
   <si>
@@ -478,9 +514,6 @@
     <t>tain2c0646</t>
   </si>
   <si>
-    <t>tain2c0112</t>
-  </si>
-  <si>
     <t>tain4m0001</t>
   </si>
   <si>
@@ -499,9 +532,6 @@
     <t>tain2m0069</t>
   </si>
   <si>
-    <t>tain2c0300</t>
-  </si>
-  <si>
     <t>tain2c0515</t>
   </si>
   <si>
@@ -523,6 +553,9 @@
     <t>tain4m0040</t>
   </si>
   <si>
+    <t>tain2c0195</t>
+  </si>
+  <si>
     <t>tain4c0305</t>
   </si>
   <si>
@@ -571,9 +604,6 @@
     <t>tain2m0198</t>
   </si>
   <si>
-    <t>tain2c0128</t>
-  </si>
-  <si>
     <t>tamf2c0677</t>
   </si>
   <si>
@@ -589,9 +619,6 @@
     <t>tain2c0201</t>
   </si>
   <si>
-    <t>tain2c0056</t>
-  </si>
-  <si>
     <t>tain2c0211</t>
   </si>
   <si>
@@ -604,21 +631,27 @@
     <t>tain2m0221</t>
   </si>
   <si>
+    <t>tain2c0258</t>
+  </si>
+  <si>
+    <t>tain2m0083</t>
+  </si>
+  <si>
     <t>tain2m0219</t>
   </si>
   <si>
     <t>tain2m0217</t>
   </si>
   <si>
+    <t>tain4m0287</t>
+  </si>
+  <si>
     <t>tain2c0261</t>
   </si>
   <si>
     <t>tain4c0081</t>
   </si>
   <si>
-    <t>tain2c0033</t>
-  </si>
-  <si>
     <t>tain4m0097</t>
   </si>
   <si>
@@ -631,99 +664,105 @@
     <t>tain4m0204</t>
   </si>
   <si>
+    <t>6509497RS1</t>
+  </si>
+  <si>
+    <t>6493165W</t>
+  </si>
+  <si>
+    <t>6599962W</t>
+  </si>
+  <si>
+    <t>6598442V</t>
+  </si>
+  <si>
+    <t>6469955RW</t>
+  </si>
+  <si>
+    <t>6402818W</t>
+  </si>
+  <si>
+    <t>6583414RT1</t>
+  </si>
+  <si>
+    <t>6568896RS</t>
+  </si>
+  <si>
+    <t>6544665RT1</t>
+  </si>
+  <si>
+    <t>6582149RT1</t>
+  </si>
+  <si>
+    <t>6517970W</t>
+  </si>
+  <si>
+    <t>6469032W</t>
+  </si>
+  <si>
+    <t>6449856W</t>
+  </si>
+  <si>
+    <t>6587366J</t>
+  </si>
+  <si>
+    <t>6454680RX</t>
+  </si>
+  <si>
+    <t>6472949J</t>
+  </si>
+  <si>
+    <t>6484656W</t>
+  </si>
+  <si>
+    <t>6541997RT</t>
+  </si>
+  <si>
+    <t>6568284RS</t>
+  </si>
+  <si>
+    <t>6501657W</t>
+  </si>
+  <si>
+    <t>6574317RX1</t>
+  </si>
+  <si>
+    <t>6527567RT1</t>
+  </si>
+  <si>
+    <t>6527568J1</t>
+  </si>
+  <si>
+    <t>6568094B1</t>
+  </si>
+  <si>
+    <t>6597047A1</t>
+  </si>
+  <si>
+    <t>6574238K1</t>
+  </si>
+  <si>
+    <t>6567707A1</t>
+  </si>
+  <si>
+    <t>6567697A1</t>
+  </si>
+  <si>
+    <t>6567708A1</t>
+  </si>
+  <si>
+    <t>6576993A1</t>
+  </si>
+  <si>
+    <t>6613536RS1</t>
+  </si>
+  <si>
+    <t>6581603W1</t>
+  </si>
+  <si>
     <t>6581597RW1</t>
   </si>
   <si>
-    <t>6469955RW</t>
-  </si>
-  <si>
-    <t>6402818W</t>
-  </si>
-  <si>
-    <t>6568896RS</t>
-  </si>
-  <si>
-    <t>6609111V</t>
-  </si>
-  <si>
-    <t>6582149RT1</t>
-  </si>
-  <si>
-    <t>6517970W</t>
-  </si>
-  <si>
-    <t>6469032W</t>
-  </si>
-  <si>
-    <t>6449856W</t>
-  </si>
-  <si>
-    <t>6587366J</t>
-  </si>
-  <si>
-    <t>6454680RX</t>
-  </si>
-  <si>
-    <t>6477706W</t>
-  </si>
-  <si>
-    <t>6472949J</t>
-  </si>
-  <si>
-    <t>6484656W</t>
-  </si>
-  <si>
-    <t>6541997RT</t>
-  </si>
-  <si>
-    <t>6568284RS</t>
-  </si>
-  <si>
-    <t>6501657W</t>
-  </si>
-  <si>
-    <t>6513692W1</t>
-  </si>
-  <si>
-    <t>6574317RX1</t>
-  </si>
-  <si>
-    <t>6527567RT1</t>
-  </si>
-  <si>
-    <t>6527568J1</t>
-  </si>
-  <si>
-    <t>6568094B1</t>
-  </si>
-  <si>
-    <t>6597047A1</t>
-  </si>
-  <si>
-    <t>6574238K1</t>
-  </si>
-  <si>
-    <t>6567707A1</t>
-  </si>
-  <si>
-    <t>6567697A1</t>
-  </si>
-  <si>
-    <t>6567708A1</t>
-  </si>
-  <si>
-    <t>6576993A1</t>
-  </si>
-  <si>
-    <t>6613536RS1</t>
-  </si>
-  <si>
-    <t>6581603W1</t>
-  </si>
-  <si>
-    <t>6583414RT1</t>
-  </si>
-  <si>
     <t>6588241W1</t>
   </si>
   <si>
@@ -733,13 +772,19 @@
     <t>6622061N</t>
   </si>
   <si>
-    <t>10001758W1</t>
-  </si>
-  <si>
     <t>10000454R1</t>
   </si>
   <si>
-    <t>MSP430FG439IPN</t>
+    <t>HPA3111D1PWPR</t>
+  </si>
+  <si>
+    <t>MSP430V320SPM</t>
+  </si>
+  <si>
+    <t>DS114S08BIPBSR</t>
+  </si>
+  <si>
+    <t>ADS8588SIPMR</t>
   </si>
   <si>
     <t>ADS1602IPFBR</t>
@@ -748,10 +793,16 @@
     <t>2ELVDS84ADGGR</t>
   </si>
   <si>
-    <t>TAS5754MDCA</t>
-  </si>
-  <si>
-    <t>ADS8588HIPMR</t>
+    <t>HPS23751PWPR</t>
+  </si>
+  <si>
+    <t>TAS5766MDCAR</t>
+  </si>
+  <si>
+    <t>TAS5756MDCAR</t>
+  </si>
+  <si>
+    <t>2060ASDFDRG4</t>
   </si>
   <si>
     <t>HU92630QPWPRQ1</t>
@@ -772,9 +823,6 @@
     <t>TVP5147M1IPFPR</t>
   </si>
   <si>
-    <t>430F2252IDAR</t>
-  </si>
-  <si>
     <t>4DRV401AIDWPR</t>
   </si>
   <si>
@@ -790,9 +838,6 @@
     <t>ADS1675IPAGR</t>
   </si>
   <si>
-    <t>TPS70751PWPR</t>
-  </si>
-  <si>
     <t>PCM1863DBTR</t>
   </si>
   <si>
@@ -832,9 +877,6 @@
     <t>430FG479IPNR</t>
   </si>
   <si>
-    <t>HPS23751PWPR</t>
-  </si>
-  <si>
     <t>430FG438IPNR</t>
   </si>
   <si>
@@ -844,13 +886,13 @@
     <t>MSP430F448IPZR</t>
   </si>
   <si>
+    <t>MSP430F449IPZ</t>
+  </si>
+  <si>
     <t>TAS5760LDAPR</t>
   </si>
   <si>
     <t>ISO7741FSDBQR</t>
-  </si>
-  <si>
-    <t>TPS5130PTR</t>
   </si>
   <si>
     <t>S320F28027FPTQ</t>
@@ -1265,20 +1307,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G157"/>
+  <dimension ref="A1:G165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="53" customWidth="1"/>
+    <col min="6" max="6" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1309,18 +1351,20 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <v>5034920</v>
+        <v>5049101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="F2" s="2">
+        <v>490</v>
+      </c>
       <c r="G2" s="2">
         <v>1</v>
       </c>
@@ -1330,18 +1374,20 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>5034918</v>
+        <v>5049099</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="F3" s="2">
+        <v>490</v>
+      </c>
       <c r="G3" s="2">
         <v>2</v>
       </c>
@@ -1351,18 +1397,20 @@
         <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>5034917</v>
+        <v>5049102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="F4" s="2">
+        <v>490</v>
+      </c>
       <c r="G4" s="2">
         <v>3</v>
       </c>
@@ -1372,146 +1420,156 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>5030867</v>
+        <v>5019795</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="F5" s="2">
+        <v>405.5</v>
+      </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>5030867</v>
+        <v>5039438</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="F6" s="2">
+        <v>347</v>
+      </c>
       <c r="G6" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>5030868</v>
+        <v>5039439</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="F7" s="2">
+        <v>347</v>
+      </c>
       <c r="G7" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2">
-        <v>5013439</v>
+        <v>2989669</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="F8" s="2">
+        <v>153.5</v>
+      </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2">
-        <v>2928990</v>
+        <v>2989668</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="F9" s="2">
+        <v>153.5</v>
+      </c>
       <c r="G9" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
-        <v>5013440</v>
+        <v>2989670</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="F10" s="2">
+        <v>153.5</v>
+      </c>
       <c r="G10" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2">
-        <v>5034916</v>
+        <v>5030867</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11" s="2">
-        <v>191.6</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2">
         <v>1</v>
       </c>
@@ -1521,20 +1579,18 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>5034915</v>
+        <v>5030867</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F12" s="2">
-        <v>191.6</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2">
         <v>2</v>
       </c>
@@ -1544,20 +1600,18 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>5034914</v>
+        <v>5030868</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F13" s="2">
-        <v>191.6</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2">
         <v>3</v>
       </c>
@@ -1567,16 +1621,16 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>5033181</v>
+        <v>5013439</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1588,22 +1642,20 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>2942483</v>
+        <v>2928990</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F15" s="2">
-        <v>107</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1611,144 +1663,156 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>2946260</v>
+        <v>5013440</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>5046249</v>
+        <v>5049996</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="F17" s="2">
+        <v>722.66666666666663</v>
+      </c>
       <c r="G17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>5046248</v>
+        <v>5049995</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F18" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="F18" s="2">
+        <v>722.66666666666663</v>
+      </c>
       <c r="G18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>2928991</v>
+        <v>5049998</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="F19" s="2">
+        <v>722.66666666666663</v>
+      </c>
       <c r="G19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>2978221</v>
+        <v>5015920</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4444</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3333</v>
+      </c>
+      <c r="F20" s="2">
+        <v>9999</v>
+      </c>
       <c r="G20" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>2978221</v>
+        <v>5033197</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="F21" s="2">
+        <v>460.6</v>
+      </c>
       <c r="G21" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>2978222</v>
+        <v>5033182</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="F22" s="2">
+        <v>381.5</v>
+      </c>
       <c r="G22" s="2">
         <v>3</v>
       </c>
@@ -1758,142 +1822,154 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>2978222</v>
+        <v>5049998</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="F23" s="2">
+        <v>737</v>
+      </c>
       <c r="G23" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2">
-        <v>2978241</v>
+        <v>5043299</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="F24" s="2">
+        <v>237.0526315789474</v>
+      </c>
       <c r="G24" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2">
-        <v>2978241</v>
+        <v>5043298</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="F25" s="2">
+        <v>237.0526315789474</v>
+      </c>
       <c r="G25" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2">
-        <v>5019491</v>
+        <v>5043297</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="F26" s="2">
+        <v>229.32432432432429</v>
+      </c>
       <c r="G26" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2">
-        <v>5023062</v>
+        <v>5043296</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F27" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="F27" s="2">
+        <v>229.32432432432429</v>
+      </c>
       <c r="G27" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2">
-        <v>5019492</v>
+        <v>5043295</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="F28" s="2">
+        <v>229.32432432432429</v>
+      </c>
       <c r="G28" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2">
-        <v>5013520</v>
+        <v>2946260</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
@@ -1902,19 +1978,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>5005280</v>
+        <v>5046249</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2">
@@ -1923,19 +1999,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2">
-        <v>2982563</v>
+        <v>5046248</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
@@ -1944,19 +2020,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2">
-        <v>2982562</v>
+        <v>2928991</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2">
@@ -1965,82 +2041,82 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2">
-        <v>5005281</v>
+        <v>2978221</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>2978209</v>
+        <v>2978221</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>5024607</v>
+        <v>2978222</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>2927667</v>
+        <v>2978222</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2">
@@ -2049,23 +2125,23 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>2999341</v>
+        <v>2978241</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2073,20 +2149,20 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>2876323</v>
+        <v>2978241</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2094,16 +2170,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>2880932</v>
+        <v>5019491</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2">
@@ -2115,16 +2191,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>2951507</v>
+        <v>5023062</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2">
@@ -2133,19 +2209,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>2919163</v>
+        <v>5019492</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2">
@@ -2154,19 +2230,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>5034973</v>
+        <v>5013520</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2">
@@ -2175,19 +2251,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>5034972</v>
+        <v>5005280</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2">
@@ -2196,19 +2272,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>5034971</v>
+        <v>2982563</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2">
@@ -2217,19 +2293,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>5034970</v>
+        <v>2982562</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2">
@@ -2238,19 +2314,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>5034974</v>
+        <v>5005281</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2">
@@ -2259,19 +2335,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>5034975</v>
+        <v>2978209</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2">
@@ -2280,19 +2356,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>5032876</v>
+        <v>5024607</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2">
@@ -2301,19 +2377,19 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>5004980</v>
+        <v>2927667</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2">
@@ -2322,19 +2398,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>2989536</v>
+        <v>2876323</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2">
@@ -2343,44 +2419,44 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>5012553</v>
+        <v>2880932</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>2989536</v>
+        <v>2951507</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2388,205 +2464,205 @@
         <v>49</v>
       </c>
       <c r="B53" s="2">
-        <v>5033655</v>
+        <v>2919163</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" s="2">
-        <v>5033653</v>
+        <v>5034973</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" s="2">
-        <v>5033652</v>
+        <v>5034972</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B56" s="2">
-        <v>2999801</v>
+        <v>5034971</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B57" s="2">
-        <v>2999800</v>
+        <v>5034970</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" s="2">
-        <v>2999799</v>
+        <v>5034974</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" s="2">
-        <v>5050989</v>
+        <v>5034975</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" s="2">
-        <v>5011539</v>
+        <v>5032876</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" s="2">
-        <v>5011538</v>
+        <v>5004980</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62" s="2">
-        <v>2999802</v>
+        <v>5033655</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2">
@@ -2595,208 +2671,208 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63" s="2">
-        <v>5011537</v>
+        <v>5033653</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B64" s="2">
-        <v>5011500</v>
+        <v>5033652</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B65" s="2">
-        <v>5011499</v>
+        <v>2999801</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B66" s="2">
-        <v>5011498</v>
+        <v>2999800</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B67" s="2">
-        <v>5011497</v>
+        <v>2999799</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B68" s="2">
-        <v>5011496</v>
+        <v>5050989</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B69" s="2">
-        <v>5011494</v>
+        <v>5011461</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B70" s="2">
-        <v>5011493</v>
+        <v>5011459</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B71" s="2">
-        <v>5011492</v>
+        <v>2999802</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B72" s="2">
-        <v>2987690</v>
+        <v>5011457</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2">
@@ -2805,19 +2881,19 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B73" s="2">
-        <v>2987689</v>
+        <v>5011455</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2">
@@ -2826,19 +2902,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B74" s="2">
-        <v>2987686</v>
+        <v>5011452</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2">
@@ -2847,19 +2923,19 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B75" s="2">
-        <v>2987685</v>
+        <v>5011539</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2">
@@ -2868,19 +2944,19 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B76" s="2">
-        <v>2987692</v>
+        <v>5011538</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2">
@@ -2889,19 +2965,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B77" s="2">
-        <v>2987687</v>
+        <v>5011537</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2">
@@ -2910,19 +2986,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B78" s="2">
-        <v>2987688</v>
+        <v>5011450</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2">
@@ -2931,19 +3007,19 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B79" s="2">
-        <v>5044466</v>
+        <v>5033181</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2">
@@ -2952,82 +3028,82 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B80" s="2">
-        <v>5044325</v>
+        <v>2987690</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B81" s="2">
-        <v>5045992</v>
+        <v>2987689</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B82" s="2">
-        <v>5045991</v>
+        <v>2987686</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B83" s="2">
-        <v>5047704</v>
+        <v>2987685</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2">
@@ -3036,19 +3112,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B84" s="2">
-        <v>5047703</v>
+        <v>2987692</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2">
@@ -3057,40 +3133,40 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B85" s="2">
-        <v>5046905</v>
+        <v>2987687</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B86" s="2">
-        <v>5030341</v>
+        <v>2987688</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2">
@@ -3099,19 +3175,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B87" s="2">
-        <v>2995377</v>
+        <v>5044325</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2">
@@ -3120,19 +3196,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B88" s="2">
-        <v>5032844</v>
+        <v>5045992</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2">
@@ -3144,16 +3220,16 @@
         <v>83</v>
       </c>
       <c r="B89" s="2">
-        <v>5032843</v>
+        <v>5045991</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2">
@@ -3165,20 +3241,20 @@
         <v>84</v>
       </c>
       <c r="B90" s="2">
-        <v>5032842</v>
+        <v>5047704</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3186,20 +3262,20 @@
         <v>85</v>
       </c>
       <c r="B91" s="2">
-        <v>5002234</v>
+        <v>5047703</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3207,20 +3283,20 @@
         <v>86</v>
       </c>
       <c r="B92" s="2">
-        <v>5002233</v>
+        <v>5046905</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3228,20 +3304,20 @@
         <v>87</v>
       </c>
       <c r="B93" s="2">
-        <v>5002232</v>
+        <v>5030341</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3249,16 +3325,16 @@
         <v>88</v>
       </c>
       <c r="B94" s="2">
-        <v>5040400</v>
+        <v>2995377</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2">
@@ -3270,20 +3346,20 @@
         <v>89</v>
       </c>
       <c r="B95" s="2">
-        <v>5040399</v>
+        <v>5032844</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3291,20 +3367,20 @@
         <v>90</v>
       </c>
       <c r="B96" s="2">
-        <v>5040398</v>
+        <v>5032843</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3312,20 +3388,20 @@
         <v>91</v>
       </c>
       <c r="B97" s="2">
-        <v>5040397</v>
+        <v>5032842</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3333,20 +3409,20 @@
         <v>92</v>
       </c>
       <c r="B98" s="2">
-        <v>5040396</v>
+        <v>5002234</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3354,20 +3430,20 @@
         <v>93</v>
       </c>
       <c r="B99" s="2">
-        <v>5040395</v>
+        <v>5002233</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3375,20 +3451,20 @@
         <v>94</v>
       </c>
       <c r="B100" s="2">
-        <v>5040394</v>
+        <v>5002232</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3396,20 +3472,20 @@
         <v>95</v>
       </c>
       <c r="B101" s="2">
-        <v>5040393</v>
+        <v>5040400</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3417,20 +3493,20 @@
         <v>96</v>
       </c>
       <c r="B102" s="2">
-        <v>5040391</v>
+        <v>5040399</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3438,20 +3514,20 @@
         <v>97</v>
       </c>
       <c r="B103" s="2">
-        <v>5040390</v>
+        <v>5040398</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3459,20 +3535,20 @@
         <v>98</v>
       </c>
       <c r="B104" s="2">
-        <v>5040389</v>
+        <v>5040397</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3480,20 +3556,20 @@
         <v>99</v>
       </c>
       <c r="B105" s="2">
-        <v>5040388</v>
+        <v>5040396</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3501,20 +3577,20 @@
         <v>100</v>
       </c>
       <c r="B106" s="2">
-        <v>5040387</v>
+        <v>5040395</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3522,20 +3598,20 @@
         <v>101</v>
       </c>
       <c r="B107" s="2">
-        <v>5023120</v>
+        <v>5040394</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3543,20 +3619,20 @@
         <v>102</v>
       </c>
       <c r="B108" s="2">
-        <v>5023119</v>
+        <v>5040393</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3564,226 +3640,226 @@
         <v>103</v>
       </c>
       <c r="B109" s="2">
-        <v>5049998</v>
+        <v>5040391</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B110" s="2">
-        <v>5049998</v>
+        <v>5040390</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B111" s="2">
-        <v>5046247</v>
+        <v>5040389</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B112" s="2">
-        <v>5046246</v>
+        <v>5040388</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B113" s="2">
-        <v>5046245</v>
+        <v>5040387</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2">
-        <v>5046244</v>
+        <v>5023120</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B115" s="2">
-        <v>5046243</v>
+        <v>5023119</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2">
-        <v>5046242</v>
+        <v>5046247</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2">
-        <v>5046241</v>
+        <v>5046246</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2">
-        <v>5046240</v>
+        <v>5046245</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2">
-        <v>5034913</v>
+        <v>5046244</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2">
@@ -3792,19 +3868,19 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2">
-        <v>5034912</v>
+        <v>5046243</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2">
@@ -3813,19 +3889,19 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2">
-        <v>5034905</v>
+        <v>5046242</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2">
@@ -3834,19 +3910,19 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2">
-        <v>5034904</v>
+        <v>5046241</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2">
@@ -3855,19 +3931,19 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2">
-        <v>5034903</v>
+        <v>5046240</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2">
@@ -3876,86 +3952,86 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2">
-        <v>5034902</v>
+        <v>5034920</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B125" s="2">
-        <v>5034901</v>
+        <v>5034918</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B126" s="2">
-        <v>5034900</v>
+        <v>5034917</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="B127" s="2">
-        <v>5034899</v>
+        <v>5034916</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3963,20 +4039,20 @@
         <v>114</v>
       </c>
       <c r="B128" s="2">
-        <v>5034898</v>
+        <v>5034915</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -3984,20 +4060,20 @@
         <v>115</v>
       </c>
       <c r="B129" s="2">
-        <v>5034897</v>
+        <v>5034914</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -4005,20 +4081,20 @@
         <v>116</v>
       </c>
       <c r="B130" s="2">
-        <v>5028200</v>
+        <v>5034913</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4026,20 +4102,20 @@
         <v>117</v>
       </c>
       <c r="B131" s="2">
-        <v>5028199</v>
+        <v>5034912</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4047,163 +4123,163 @@
         <v>118</v>
       </c>
       <c r="B132" s="2">
-        <v>5028198</v>
+        <v>5034905</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="B133" s="2">
-        <v>5028196</v>
+        <v>5034904</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B134" s="2">
-        <v>5028195</v>
+        <v>5034903</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B135" s="2">
-        <v>5023109</v>
+        <v>5034902</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B136" s="2">
-        <v>5034906</v>
+        <v>5034901</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B137" s="2">
-        <v>5023111</v>
+        <v>5034900</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B138" s="2">
-        <v>5028201</v>
+        <v>5034899</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B139" s="2">
-        <v>5035968</v>
+        <v>5034898</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="2">
@@ -4212,19 +4288,19 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B140" s="2">
-        <v>5035958</v>
+        <v>5034897</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2">
@@ -4233,19 +4309,19 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B141" s="2">
-        <v>5035972</v>
+        <v>5028200</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="2">
@@ -4254,19 +4330,19 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B142" s="2">
-        <v>5035973</v>
+        <v>5028199</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="2">
@@ -4275,61 +4351,61 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B143" s="2">
-        <v>5012579</v>
+        <v>5028198</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B144" s="2">
-        <v>5012580</v>
+        <v>5028196</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B145" s="2">
-        <v>5000831</v>
+        <v>5028195</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="2">
@@ -4338,19 +4414,19 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B146" s="2">
-        <v>5000832</v>
+        <v>5023109</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="2">
@@ -4359,40 +4435,40 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B147" s="2">
-        <v>5022407</v>
+        <v>5034906</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B148" s="2">
-        <v>5025252</v>
+        <v>5035973</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="2">
@@ -4401,61 +4477,61 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B149" s="2">
-        <v>5050467</v>
+        <v>5035968</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B150" s="2">
-        <v>5037655</v>
+        <v>5035958</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B151" s="2">
-        <v>5028777</v>
+        <v>5035972</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="2">
@@ -4464,61 +4540,61 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B152" s="2">
-        <v>5025253</v>
+        <v>5012579</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B153" s="2">
-        <v>5025252</v>
+        <v>5012580</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B154" s="2">
-        <v>5025254</v>
+        <v>5000831</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="2">
@@ -4527,19 +4603,19 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B155" s="2">
-        <v>5028778</v>
+        <v>5000832</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="2">
@@ -4548,43 +4624,211 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B156" s="2">
-        <v>5025255</v>
+        <v>5025252</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B157" s="2">
-        <v>5037656</v>
+        <v>5050467</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B158" s="2">
+        <v>5037655</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B159" s="2">
+        <v>5028777</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B160" s="2">
+        <v>5025253</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B161" s="2">
+        <v>5025252</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B162" s="2">
+        <v>5025254</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B163" s="2">
+        <v>5028778</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B164" s="2">
+        <v>5025255</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B165" s="2">
+        <v>5037656</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2">
         <v>1</v>
       </c>
     </row>
